--- a/output.xlsx
+++ b/output.xlsx
@@ -1,127 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\WebScraping\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D76B7DA-E62B-47F1-93E9-484B3FABF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Email </t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>Google Url</t>
-  </si>
-  <si>
-    <t>105-0001</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/〒105-0001</t>
-  </si>
-  <si>
-    <t>163-8080</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/〒163-8080</t>
-  </si>
-  <si>
-    <t>164-0011</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>18.1</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/〒164-0011</t>
-  </si>
-  <si>
-    <t>141-0022</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/〒141-0022</t>
-  </si>
-  <si>
-    <t>Dest1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dest2</t>
-  </si>
-  <si>
-    <t>Dest3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="細明體"/>
       <charset val="136"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,33 +64,99 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,106 +451,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <cols>
+    <col width="31.7265625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>中目黒駅</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>渋谷駅</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>代官山駅</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>恵比寿駅</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>麻布十番駅</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>六本木駅</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>新宿駅</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>飯田橋駅</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>日本橋駅</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>銀座駅</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>大手町駅</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>Beemars</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>早稲田大学3号館</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Harry's Sandwich</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>東京都新宿区北新宿2-19-2-302</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>31 min</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24 min</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30 min</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27 min</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>十条駅</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26 min</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16 min</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27 min</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18 min</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="4"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/output.xlsx
+++ b/output.xlsx
@@ -1,54 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\PycharmProjects\WebScraping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E39AF-439C-4C6D-BCAF-D94C1173FD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t>Origin - Destination</t>
+  </si>
+  <si>
+    <t>東京タワー</t>
+  </si>
+  <si>
+    <t>東京スカイツリー</t>
+  </si>
+  <si>
+    <t>中目黒駅</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>39 min</t>
+  </si>
+  <si>
+    <t>渋谷駅</t>
+  </si>
+  <si>
+    <t>34 min</t>
+  </si>
+  <si>
+    <t>31 min</t>
+  </si>
+  <si>
+    <t>代官山駅</t>
+  </si>
+  <si>
+    <t>25 min</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>恵比寿駅</t>
+  </si>
+  <si>
+    <t>17 min</t>
+  </si>
+  <si>
+    <t>36 min</t>
+  </si>
+  <si>
+    <t>麻布十番駅</t>
+  </si>
+  <si>
+    <t>27 min</t>
+  </si>
+  <si>
+    <t>六本木駅</t>
+  </si>
+  <si>
+    <t>11 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>新宿駅</t>
+  </si>
+  <si>
+    <t>飯田橋駅</t>
+  </si>
+  <si>
+    <t>22 min</t>
+  </si>
+  <si>
+    <t>日本橋駅</t>
+  </si>
+  <si>
+    <t>12 min</t>
+  </si>
+  <si>
+    <t>銀座駅</t>
+  </si>
+  <si>
+    <t>16 min</t>
+  </si>
+  <si>
+    <t>大手町駅</t>
+  </si>
+  <si>
+    <t>14 min</t>
+  </si>
+  <si>
+    <t>浅草寺</t>
+  </si>
+  <si>
+    <t>8 min</t>
+  </si>
+  <si>
+    <t>上野駅</t>
+  </si>
+  <si>
+    <t>33 min</t>
+  </si>
+  <si>
+    <t>13 min</t>
+  </si>
+  <si>
+    <t>豊洲駅</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,94 +179,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,157 +507,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col width="31.7265625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="10" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col min="1" max="1" width="31.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>中目黒駅</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>渋谷駅</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>代官山駅</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>恵比寿駅</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>麻布十番駅</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>六本木駅</t>
-        </is>
-      </c>
-      <c r="H1" s="0" t="inlineStr">
-        <is>
-          <t>新宿駅</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="inlineStr">
-        <is>
-          <t>飯田橋駅</t>
-        </is>
-      </c>
-      <c r="J1" s="0" t="inlineStr">
-        <is>
-          <t>日本橋駅</t>
-        </is>
-      </c>
-      <c r="K1" s="0" t="inlineStr">
-        <is>
-          <t>銀座駅</t>
-        </is>
-      </c>
-      <c r="L1" s="0" t="inlineStr">
-        <is>
-          <t>大手町駅</t>
-        </is>
-      </c>
-      <c r="M1" s="0" t="inlineStr">
-        <is>
-          <t>Beemars</t>
-        </is>
-      </c>
-      <c r="N1" s="0" t="inlineStr">
-        <is>
-          <t>早稲田大学3号館</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Harry's Sandwich</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>東京都新宿区北新宿2-19-2-302</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>31 min</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24 min</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30 min</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>十条駅</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26 min</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16 min</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27 min</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>18 min</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>